--- a/test/compatibility/sample_file.xlsx
+++ b/test/compatibility/sample_file.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/warp/www/hyperformula-demos/read-excel-file/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kuba/HotNoBackup/hyperformula/test/compatibility/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6EE3BD93-EF0C-1F40-9068-B74CB83E13BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D67F001-4935-8D46-B1E0-3B0A24533460}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25740" yWindow="19460" windowWidth="25180" windowHeight="9060" xr2:uid="{6B37ABA7-C604-49FF-9C2F-D6A5A15C5D52}"/>
+    <workbookView xWindow="0" yWindow="880" windowWidth="36000" windowHeight="22500" xr2:uid="{6B37ABA7-C604-49FF-9C2F-D6A5A15C5D52}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,10 +33,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -70,9 +66,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -92,9 +87,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -132,7 +127,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -238,7 +233,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -380,7 +375,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -391,7 +386,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -401,22 +396,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1">
+      <c r="A1" s="1">
         <v>1</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <f>A1+2</f>
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <f ca="1">TODAY()</f>
-        <v>44879</v>
+        <v>42</v>
       </c>
-      <c r="B2" s="1" t="str">
-        <f ca="1">TEXT(A2,"YYYY-MM-DD")</f>
-        <v>2022-11-14</v>
+      <c r="B2" s="1">
+        <f>SUM(A1:B1)</f>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
